--- a/target/test-classes/features/excel_files/roomcapacity.xlsx
+++ b/target/test-classes/features/excel_files/roomcapacity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARRUKH\IdeaProjects\bookItApplicationTest\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARRUKH\IdeaProjects\BookItReadyCucumber\src\test\resources\features\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,10 +390,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
